--- a/Data/salt_comm_comp.xlsx
+++ b/Data/salt_comm_comp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au2/Documents/Desktop/PhD/Data_analysis/Project/Functional_traits/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_91CE3CC78F79A8D366075C52F37BD2726ACCE354" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74ED6CA5-69C0-4592-B4BC-3ABD22D1FEC5}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_91CE3CC78F79A8D366075C52F37BD2726ACCE354" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{438578A9-72D1-44AD-9861-EC7EED8B27B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AC46" sqref="AC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4791,7 +4791,7 @@
         <v>4</v>
       </c>
       <c r="AC45">
-        <v>3.129</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -11744,8 +11744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4449B54B-70CB-4CA8-BFAA-AFF1945A2D1A}">
   <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AC45" sqref="AC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16148,7 +16148,7 @@
         <v>4</v>
       </c>
       <c r="AC45">
-        <v>3.129</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -23361,8 +23361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD17A0A-8AEF-4B08-A8C0-A0F3553C1AA0}">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27231,7 +27231,7 @@
         <v>36</v>
       </c>
       <c r="AA45">
-        <v>3.129</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="AB45" s="2">
         <v>11</v>

--- a/Data/salt_comm_comp.xlsx
+++ b/Data/salt_comm_comp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au2/Documents/Desktop/PhD/Data_analysis/Project/Functional_traits/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_91CE3CC78F79A8D366075C52F37BD2726ACCE354" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{438578A9-72D1-44AD-9861-EC7EED8B27B8}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_91CE3CC78F79A8D366075C52F37BD2726ACCE354" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF933B89-F67C-4028-BAC2-513115C9CC6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="49">
   <si>
     <t>Estuary</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Natural</t>
+  </si>
+  <si>
+    <t>Grass_D</t>
+  </si>
+  <si>
+    <t>Grass_E</t>
   </si>
 </sst>
 </file>
@@ -23361,11 +23367,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD17A0A-8AEF-4B08-A8C0-A0F3553C1AA0}">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -23408,10 +23418,10 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>21</v>

--- a/Data/salt_comm_comp.xlsx
+++ b/Data/salt_comm_comp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au2/Documents/Desktop/PhD/Data_analysis/Project/Functional_traits/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_91CE3CC78F79A8D366075C52F37BD2726ACCE354" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{438578A9-72D1-44AD-9861-EC7EED8B27B8}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_91CE3CC78F79A8D366075C52F37BD2726ACCE354" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB11A35-E307-4259-892D-2986C2D10562}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>GSG</t>
-  </si>
-  <si>
-    <t>Grass_sp_1</t>
-  </si>
-  <si>
-    <t>Grass_sp_2</t>
   </si>
   <si>
     <t>Juncus_kraussii</t>
@@ -164,6 +158,12 @@
   </si>
   <si>
     <t>Natural</t>
+  </si>
+  <si>
+    <t>Grass_D</t>
+  </si>
+  <si>
+    <t>Grass_E</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AC46" sqref="AC46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,40 +566,40 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB3">
         <v>2</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB4">
         <v>3</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB5">
         <v>4</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB6">
         <v>5</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB7">
         <v>6</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB8">
         <v>7</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB9">
         <v>8</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB10">
         <v>9</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -1647,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="s">
         <v>31</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>33</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="s">
         <v>31</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>33</v>
       </c>
       <c r="AB13">
         <v>2</v>
@@ -1837,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA14" t="s">
         <v>31</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>33</v>
       </c>
       <c r="AB14">
         <v>3</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="s">
         <v>31</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>33</v>
       </c>
       <c r="AB15">
         <v>4</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="s">
         <v>31</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>33</v>
       </c>
       <c r="AB16">
         <v>5</v>
@@ -2122,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="s">
         <v>31</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>33</v>
       </c>
       <c r="AB17">
         <v>6</v>
@@ -2217,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="s">
         <v>31</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>33</v>
       </c>
       <c r="AB18">
         <v>7</v>
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="s">
         <v>31</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>33</v>
       </c>
       <c r="AB19">
         <v>8</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="s">
         <v>31</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>33</v>
       </c>
       <c r="AB20">
         <v>9</v>
@@ -2502,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA21" t="s">
         <v>31</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>33</v>
       </c>
       <c r="AB21">
         <v>10</v>
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA22" t="s">
         <v>31</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>33</v>
       </c>
       <c r="AB22">
         <v>11</v>
@@ -2692,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="s">
         <v>31</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>33</v>
       </c>
       <c r="AB23">
         <v>12</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB24">
         <v>1</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB25">
         <v>2</v>
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB26">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB27">
         <v>4</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB28">
         <v>5</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="Z29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB29">
         <v>6</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB30">
         <v>7</v>
@@ -3452,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB31">
         <v>8</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB32">
         <v>9</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB33">
         <v>10</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="Z34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB34">
         <v>11</v>
@@ -3832,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB35">
         <v>12</v>
@@ -3927,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB36">
         <v>1</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB37">
         <v>2</v>
@@ -4117,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB38">
         <v>3</v>
@@ -4212,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB39">
         <v>4</v>
@@ -4307,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="Z40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB40">
         <v>5</v>
@@ -4402,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB41">
         <v>6</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="Z42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB42">
         <v>1</v>
@@ -4592,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="Z43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB43">
         <v>2</v>
@@ -4687,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB44">
         <v>3</v>
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB45">
         <v>4</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB46">
         <v>5</v>
@@ -4972,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="Z47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB47">
         <v>6</v>
@@ -5067,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="Z48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB48">
         <v>7</v>
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="Z49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB49">
         <v>9</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="Z50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB50">
         <v>10</v>
@@ -5352,10 +5352,10 @@
         <v>0</v>
       </c>
       <c r="Z51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB51">
         <v>11</v>
@@ -5447,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="Z52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB52">
         <v>12</v>
@@ -5542,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="Z53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB53">
         <v>7</v>
@@ -5637,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="Z54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB54">
         <v>8</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="Z55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB55">
         <v>9</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="Z56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB56">
         <v>10</v>
@@ -5922,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="Z57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB57">
         <v>11</v>
@@ -6017,10 +6017,10 @@
         <v>0</v>
       </c>
       <c r="Z58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB58">
         <v>12</v>
@@ -6112,10 +6112,10 @@
         <v>0</v>
       </c>
       <c r="Z59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB59">
         <v>1</v>
@@ -6207,10 +6207,10 @@
         <v>0</v>
       </c>
       <c r="Z60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB60">
         <v>2</v>
@@ -6302,10 +6302,10 @@
         <v>0</v>
       </c>
       <c r="Z61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB61">
         <v>3</v>
@@ -6397,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="Z62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB62">
         <v>4</v>
@@ -6492,10 +6492,10 @@
         <v>0</v>
       </c>
       <c r="Z63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB63">
         <v>5</v>
@@ -6587,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="Z64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB64">
         <v>6</v>
@@ -6682,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="Z65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB65">
         <v>7</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="Z66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB66">
         <v>8</v>
@@ -6872,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="Z67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -6967,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="Z68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB68">
         <v>3</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
@@ -7062,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="Z69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB69">
         <v>4</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -7157,10 +7157,10 @@
         <v>0</v>
       </c>
       <c r="Z70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB70">
         <v>5</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="Z71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB71">
         <v>6</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="Z72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB72">
         <v>7</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
@@ -7442,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="Z73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB73">
         <v>8</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
@@ -7537,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="Z74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB74">
         <v>9</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
@@ -7632,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="Z75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB75">
         <v>9</v>
@@ -7727,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="Z76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB76">
         <v>10</v>
@@ -7822,10 +7822,10 @@
         <v>0</v>
       </c>
       <c r="Z77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB77">
         <v>11</v>
@@ -7917,10 +7917,10 @@
         <v>0</v>
       </c>
       <c r="Z78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB78">
         <v>12</v>
@@ -8012,10 +8012,10 @@
         <v>0</v>
       </c>
       <c r="Z79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB79">
         <v>11</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
@@ -8107,10 +8107,10 @@
         <v>0</v>
       </c>
       <c r="Z80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB80">
         <v>12</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -8202,10 +8202,10 @@
         <v>0</v>
       </c>
       <c r="Z81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB81">
         <v>13</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="Z82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB82">
         <v>14</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="Z83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB83">
         <v>1</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="AE83" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -8487,10 +8487,10 @@
         <v>0</v>
       </c>
       <c r="Z84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB84">
         <v>2</v>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -8582,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="Z85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB85">
         <v>3</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="AE85" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -8677,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="Z86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB86">
         <v>4</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="Z87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB87">
         <v>1</v>
@@ -8867,10 +8867,10 @@
         <v>0</v>
       </c>
       <c r="Z88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB88">
         <v>2</v>
@@ -8962,10 +8962,10 @@
         <v>0</v>
       </c>
       <c r="Z89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB89">
         <v>3</v>
@@ -9057,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="Z90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB90">
         <v>4</v>
@@ -9152,10 +9152,10 @@
         <v>0</v>
       </c>
       <c r="Z91" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA91" t="s">
         <v>40</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>42</v>
       </c>
       <c r="AB91">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="AE91" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -9247,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="Z92" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA92" t="s">
         <v>40</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>42</v>
       </c>
       <c r="AB92">
         <v>2</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="AE92" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -9342,10 +9342,10 @@
         <v>0</v>
       </c>
       <c r="Z93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA93" t="s">
         <v>40</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>42</v>
       </c>
       <c r="AB93">
         <v>3</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
@@ -9437,10 +9437,10 @@
         <v>0</v>
       </c>
       <c r="Z94" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA94" t="s">
         <v>40</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>42</v>
       </c>
       <c r="AB94">
         <v>4</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="Z95" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA95" t="s">
         <v>40</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>42</v>
       </c>
       <c r="AB95">
         <v>5</v>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -9627,10 +9627,10 @@
         <v>0</v>
       </c>
       <c r="Z96" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA96" t="s">
         <v>40</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>42</v>
       </c>
       <c r="AB96">
         <v>6</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="AE96" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -9722,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="Z97" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA97" t="s">
         <v>40</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>42</v>
       </c>
       <c r="AB97">
         <v>7</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="AE97" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -9817,10 +9817,10 @@
         <v>0</v>
       </c>
       <c r="Z98" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA98" t="s">
         <v>40</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>42</v>
       </c>
       <c r="AB98">
         <v>8</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AE98" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -9912,10 +9912,10 @@
         <v>12</v>
       </c>
       <c r="Z99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB99">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="AE99" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -10007,10 +10007,10 @@
         <v>0</v>
       </c>
       <c r="Z100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB100">
         <v>2</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -10102,10 +10102,10 @@
         <v>0</v>
       </c>
       <c r="Z101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB101">
         <v>3</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="Z102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB102">
         <v>4</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="AE102" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -10292,10 +10292,10 @@
         <v>0</v>
       </c>
       <c r="Z103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB103">
         <v>5</v>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -10387,10 +10387,10 @@
         <v>0</v>
       </c>
       <c r="Z104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB104">
         <v>6</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="AE104" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
@@ -10482,10 +10482,10 @@
         <v>0</v>
       </c>
       <c r="Z105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB105">
         <v>7</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -10577,10 +10577,10 @@
         <v>0</v>
       </c>
       <c r="Z106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB106">
         <v>8</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
@@ -10672,10 +10672,10 @@
         <v>0</v>
       </c>
       <c r="Z107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB107">
         <v>5</v>
@@ -10767,10 +10767,10 @@
         <v>0</v>
       </c>
       <c r="Z108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB108">
         <v>6</v>
@@ -10862,10 +10862,10 @@
         <v>0</v>
       </c>
       <c r="Z109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB109">
         <v>7</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="Z110" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB110">
         <v>8</v>
@@ -11052,10 +11052,10 @@
         <v>0</v>
       </c>
       <c r="Z111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB111">
         <v>5</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="AE111" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
@@ -11147,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="Z112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA112" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB112">
         <v>6</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AE112" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
@@ -11242,10 +11242,10 @@
         <v>0</v>
       </c>
       <c r="Z113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB113">
         <v>7</v>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="AE113" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
@@ -11337,10 +11337,10 @@
         <v>0</v>
       </c>
       <c r="Z114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB114">
         <v>8</v>
@@ -11352,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="AE114" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
@@ -11432,10 +11432,10 @@
         <v>0</v>
       </c>
       <c r="Z115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB115">
         <v>9</v>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="AE115" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
@@ -11527,10 +11527,10 @@
         <v>0</v>
       </c>
       <c r="Z116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB116">
         <v>10</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AE116" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
@@ -11622,10 +11622,10 @@
         <v>0</v>
       </c>
       <c r="Z117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB117">
         <v>11</v>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="AE117" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="Z118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB118">
         <v>12</v>
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="AE118" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -11744,8 +11744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4449B54B-70CB-4CA8-BFAA-AFF1945A2D1A}">
   <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AC45" sqref="AC45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11791,40 +11791,40 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>0</v>
@@ -11845,7 +11845,7 @@
         <v>5</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -11925,10 +11925,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -12023,10 +12023,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB3">
         <v>2</v>
@@ -12121,10 +12121,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB4">
         <v>3</v>
@@ -12219,10 +12219,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB5">
         <v>4</v>
@@ -12317,10 +12317,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB6">
         <v>5</v>
@@ -12415,10 +12415,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB7">
         <v>6</v>
@@ -12513,10 +12513,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB8">
         <v>7</v>
@@ -12611,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB9">
         <v>8</v>
@@ -12709,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB10">
         <v>9</v>
@@ -12807,10 +12807,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -12905,10 +12905,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="s">
         <v>31</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>33</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -13003,10 +13003,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="s">
         <v>31</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>33</v>
       </c>
       <c r="AB13">
         <v>2</v>
@@ -13101,10 +13101,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA14" t="s">
         <v>31</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>33</v>
       </c>
       <c r="AB14">
         <v>3</v>
@@ -13199,10 +13199,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="s">
         <v>31</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>33</v>
       </c>
       <c r="AB15">
         <v>4</v>
@@ -13297,10 +13297,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="s">
         <v>31</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>33</v>
       </c>
       <c r="AB16">
         <v>5</v>
@@ -13395,10 +13395,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="s">
         <v>31</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>33</v>
       </c>
       <c r="AB17">
         <v>6</v>
@@ -13493,10 +13493,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="s">
         <v>31</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>33</v>
       </c>
       <c r="AB18">
         <v>7</v>
@@ -13591,10 +13591,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="s">
         <v>31</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>33</v>
       </c>
       <c r="AB19">
         <v>8</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="s">
         <v>31</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>33</v>
       </c>
       <c r="AB20">
         <v>9</v>
@@ -13787,10 +13787,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA21" t="s">
         <v>31</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>33</v>
       </c>
       <c r="AB21">
         <v>10</v>
@@ -13885,10 +13885,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA22" t="s">
         <v>31</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>33</v>
       </c>
       <c r="AB22">
         <v>11</v>
@@ -13983,10 +13983,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="s">
         <v>31</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>33</v>
       </c>
       <c r="AB23">
         <v>12</v>
@@ -14081,10 +14081,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB24">
         <v>1</v>
@@ -14179,10 +14179,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB25">
         <v>2</v>
@@ -14277,10 +14277,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB26">
         <v>3</v>
@@ -14375,10 +14375,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB27">
         <v>4</v>
@@ -14473,10 +14473,10 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB28">
         <v>5</v>
@@ -14571,10 +14571,10 @@
         <v>0</v>
       </c>
       <c r="Z29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB29">
         <v>6</v>
@@ -14669,10 +14669,10 @@
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB30">
         <v>7</v>
@@ -14767,10 +14767,10 @@
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB31">
         <v>8</v>
@@ -14865,10 +14865,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB32">
         <v>9</v>
@@ -14963,10 +14963,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB33">
         <v>10</v>
@@ -15061,10 +15061,10 @@
         <v>0</v>
       </c>
       <c r="Z34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB34">
         <v>11</v>
@@ -15159,10 +15159,10 @@
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB35">
         <v>12</v>
@@ -15257,10 +15257,10 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB36">
         <v>1</v>
@@ -15355,10 +15355,10 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB37">
         <v>2</v>
@@ -15453,10 +15453,10 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB38">
         <v>3</v>
@@ -15551,10 +15551,10 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB39">
         <v>4</v>
@@ -15649,10 +15649,10 @@
         <v>0</v>
       </c>
       <c r="Z40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB40">
         <v>5</v>
@@ -15747,10 +15747,10 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB41">
         <v>6</v>
@@ -15845,10 +15845,10 @@
         <v>0</v>
       </c>
       <c r="Z42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB42">
         <v>1</v>
@@ -15943,10 +15943,10 @@
         <v>0</v>
       </c>
       <c r="Z43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB43">
         <v>2</v>
@@ -16041,10 +16041,10 @@
         <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB44">
         <v>3</v>
@@ -16139,10 +16139,10 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB45">
         <v>4</v>
@@ -16237,10 +16237,10 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB46">
         <v>5</v>
@@ -16335,10 +16335,10 @@
         <v>0</v>
       </c>
       <c r="Z47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB47">
         <v>6</v>
@@ -16433,10 +16433,10 @@
         <v>0</v>
       </c>
       <c r="Z48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB48">
         <v>7</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="Z49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB49">
         <v>9</v>
@@ -16629,10 +16629,10 @@
         <v>0</v>
       </c>
       <c r="Z50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB50">
         <v>10</v>
@@ -16727,10 +16727,10 @@
         <v>0</v>
       </c>
       <c r="Z51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB51">
         <v>11</v>
@@ -16825,10 +16825,10 @@
         <v>0</v>
       </c>
       <c r="Z52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB52">
         <v>12</v>
@@ -16923,10 +16923,10 @@
         <v>0</v>
       </c>
       <c r="Z53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB53">
         <v>7</v>
@@ -17021,10 +17021,10 @@
         <v>0</v>
       </c>
       <c r="Z54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB54">
         <v>8</v>
@@ -17119,10 +17119,10 @@
         <v>0</v>
       </c>
       <c r="Z55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB55">
         <v>9</v>
@@ -17217,10 +17217,10 @@
         <v>0</v>
       </c>
       <c r="Z56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB56">
         <v>10</v>
@@ -17315,10 +17315,10 @@
         <v>0</v>
       </c>
       <c r="Z57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB57">
         <v>11</v>
@@ -17413,10 +17413,10 @@
         <v>0</v>
       </c>
       <c r="Z58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB58">
         <v>12</v>
@@ -17511,10 +17511,10 @@
         <v>0</v>
       </c>
       <c r="Z59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB59">
         <v>1</v>
@@ -17609,10 +17609,10 @@
         <v>0</v>
       </c>
       <c r="Z60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB60">
         <v>2</v>
@@ -17707,10 +17707,10 @@
         <v>0</v>
       </c>
       <c r="Z61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB61">
         <v>3</v>
@@ -17805,10 +17805,10 @@
         <v>0</v>
       </c>
       <c r="Z62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB62">
         <v>4</v>
@@ -17903,10 +17903,10 @@
         <v>0</v>
       </c>
       <c r="Z63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB63">
         <v>5</v>
@@ -18001,10 +18001,10 @@
         <v>0</v>
       </c>
       <c r="Z64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB64">
         <v>6</v>
@@ -18099,10 +18099,10 @@
         <v>0</v>
       </c>
       <c r="Z65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB65">
         <v>7</v>
@@ -18197,10 +18197,10 @@
         <v>0</v>
       </c>
       <c r="Z66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB66">
         <v>8</v>
@@ -18295,10 +18295,10 @@
         <v>0</v>
       </c>
       <c r="Z67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -18310,10 +18310,10 @@
         <v>0</v>
       </c>
       <c r="AE67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF67" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF67" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -18393,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="Z68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB68">
         <v>3</v>
@@ -18408,10 +18408,10 @@
         <v>0</v>
       </c>
       <c r="AE68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF68" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF68" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
@@ -18491,10 +18491,10 @@
         <v>0</v>
       </c>
       <c r="Z69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB69">
         <v>4</v>
@@ -18506,10 +18506,10 @@
         <v>0</v>
       </c>
       <c r="AE69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF69" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF69" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
@@ -18589,10 +18589,10 @@
         <v>0</v>
       </c>
       <c r="Z70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB70">
         <v>5</v>
@@ -18604,10 +18604,10 @@
         <v>0</v>
       </c>
       <c r="AE70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF70" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF70" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
@@ -18687,10 +18687,10 @@
         <v>0</v>
       </c>
       <c r="Z71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB71">
         <v>6</v>
@@ -18702,10 +18702,10 @@
         <v>0</v>
       </c>
       <c r="AE71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF71" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF71" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
@@ -18785,10 +18785,10 @@
         <v>0</v>
       </c>
       <c r="Z72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB72">
         <v>7</v>
@@ -18800,10 +18800,10 @@
         <v>0</v>
       </c>
       <c r="AE72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF72" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF72" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18883,10 +18883,10 @@
         <v>0</v>
       </c>
       <c r="Z73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB73">
         <v>8</v>
@@ -18898,10 +18898,10 @@
         <v>0</v>
       </c>
       <c r="AE73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF73" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF73" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18981,10 +18981,10 @@
         <v>0</v>
       </c>
       <c r="Z74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB74">
         <v>9</v>
@@ -18996,10 +18996,10 @@
         <v>0</v>
       </c>
       <c r="AE74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF74" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF74" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -19079,10 +19079,10 @@
         <v>0</v>
       </c>
       <c r="Z75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB75">
         <v>9</v>
@@ -19177,10 +19177,10 @@
         <v>0</v>
       </c>
       <c r="Z76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB76">
         <v>10</v>
@@ -19275,10 +19275,10 @@
         <v>0</v>
       </c>
       <c r="Z77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB77">
         <v>11</v>
@@ -19373,10 +19373,10 @@
         <v>0</v>
       </c>
       <c r="Z78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB78">
         <v>12</v>
@@ -19471,10 +19471,10 @@
         <v>0</v>
       </c>
       <c r="Z79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB79">
         <v>11</v>
@@ -19486,10 +19486,10 @@
         <v>0</v>
       </c>
       <c r="AE79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF79" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF79" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -19569,10 +19569,10 @@
         <v>0</v>
       </c>
       <c r="Z80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB80">
         <v>12</v>
@@ -19584,10 +19584,10 @@
         <v>0</v>
       </c>
       <c r="AE80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF80" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF80" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
@@ -19667,10 +19667,10 @@
         <v>0</v>
       </c>
       <c r="Z81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB81">
         <v>13</v>
@@ -19682,10 +19682,10 @@
         <v>0</v>
       </c>
       <c r="AE81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF81" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF81" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
@@ -19765,10 +19765,10 @@
         <v>0</v>
       </c>
       <c r="Z82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB82">
         <v>14</v>
@@ -19780,10 +19780,10 @@
         <v>0</v>
       </c>
       <c r="AE82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF82" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF82" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -19863,10 +19863,10 @@
         <v>0</v>
       </c>
       <c r="Z83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB83">
         <v>1</v>
@@ -19878,10 +19878,10 @@
         <v>0</v>
       </c>
       <c r="AE83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF83" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF83" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -19961,10 +19961,10 @@
         <v>0</v>
       </c>
       <c r="Z84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB84">
         <v>2</v>
@@ -19976,10 +19976,10 @@
         <v>0</v>
       </c>
       <c r="AE84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF84" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF84" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
@@ -20059,10 +20059,10 @@
         <v>0</v>
       </c>
       <c r="Z85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB85">
         <v>3</v>
@@ -20074,10 +20074,10 @@
         <v>0</v>
       </c>
       <c r="AE85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF85" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF85" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
@@ -20157,10 +20157,10 @@
         <v>0</v>
       </c>
       <c r="Z86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB86">
         <v>4</v>
@@ -20172,10 +20172,10 @@
         <v>0</v>
       </c>
       <c r="AE86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF86" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF86" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
@@ -20255,10 +20255,10 @@
         <v>0</v>
       </c>
       <c r="Z87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB87">
         <v>5</v>
@@ -20270,10 +20270,10 @@
         <v>0</v>
       </c>
       <c r="AE87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF87" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF87" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
@@ -20353,10 +20353,10 @@
         <v>0</v>
       </c>
       <c r="Z88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB88">
         <v>6</v>
@@ -20368,10 +20368,10 @@
         <v>0</v>
       </c>
       <c r="AE88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF88" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF88" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
@@ -20451,10 +20451,10 @@
         <v>0</v>
       </c>
       <c r="Z89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB89">
         <v>7</v>
@@ -20466,10 +20466,10 @@
         <v>0</v>
       </c>
       <c r="AE89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF89" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF89" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
@@ -20549,10 +20549,10 @@
         <v>0</v>
       </c>
       <c r="Z90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB90">
         <v>8</v>
@@ -20564,10 +20564,10 @@
         <v>0</v>
       </c>
       <c r="AE90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF90" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF90" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
@@ -20647,10 +20647,10 @@
         <v>0</v>
       </c>
       <c r="Z91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB91">
         <v>9</v>
@@ -20662,10 +20662,10 @@
         <v>0</v>
       </c>
       <c r="AE91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF91" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF91" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
@@ -20745,10 +20745,10 @@
         <v>0</v>
       </c>
       <c r="Z92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB92">
         <v>10</v>
@@ -20760,10 +20760,10 @@
         <v>0</v>
       </c>
       <c r="AE92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF92" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF92" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
@@ -20843,10 +20843,10 @@
         <v>0</v>
       </c>
       <c r="Z93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB93">
         <v>11</v>
@@ -20858,10 +20858,10 @@
         <v>0</v>
       </c>
       <c r="AE93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF93" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF93" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
@@ -20941,10 +20941,10 @@
         <v>0</v>
       </c>
       <c r="Z94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB94">
         <v>12</v>
@@ -20956,10 +20956,10 @@
         <v>0</v>
       </c>
       <c r="AE94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF94" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AF94" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -20971,8 +20971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0211E-6440-43F5-9FEA-D3AF5482A047}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21018,40 +21018,40 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>0</v>
@@ -21149,10 +21149,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -21244,10 +21244,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB3">
         <v>2</v>
@@ -21339,10 +21339,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB4">
         <v>3</v>
@@ -21434,10 +21434,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB5">
         <v>4</v>
@@ -21529,10 +21529,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s">
         <v>40</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>42</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -21544,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -21624,10 +21624,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" t="s">
         <v>40</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>42</v>
       </c>
       <c r="AB7">
         <v>2</v>
@@ -21639,7 +21639,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -21719,10 +21719,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s">
         <v>40</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>42</v>
       </c>
       <c r="AB8">
         <v>3</v>
@@ -21734,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -21814,10 +21814,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="s">
         <v>40</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>42</v>
       </c>
       <c r="AB9">
         <v>4</v>
@@ -21829,7 +21829,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -21909,10 +21909,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="s">
         <v>40</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>42</v>
       </c>
       <c r="AB10">
         <v>5</v>
@@ -21924,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -22004,10 +22004,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s">
         <v>40</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>42</v>
       </c>
       <c r="AB11">
         <v>6</v>
@@ -22019,7 +22019,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -22099,10 +22099,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="s">
         <v>40</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>42</v>
       </c>
       <c r="AB12">
         <v>7</v>
@@ -22114,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -22194,10 +22194,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="s">
         <v>40</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>42</v>
       </c>
       <c r="AB13">
         <v>8</v>
@@ -22209,7 +22209,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -22289,10 +22289,10 @@
         <v>12</v>
       </c>
       <c r="Z14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB14">
         <v>1</v>
@@ -22304,7 +22304,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -22384,10 +22384,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB15">
         <v>2</v>
@@ -22399,7 +22399,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -22479,10 +22479,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB16">
         <v>3</v>
@@ -22494,7 +22494,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -22574,10 +22574,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB17">
         <v>4</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -22669,10 +22669,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB18">
         <v>5</v>
@@ -22684,7 +22684,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -22764,10 +22764,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB19">
         <v>6</v>
@@ -22779,7 +22779,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -22859,10 +22859,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB20">
         <v>7</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -22954,10 +22954,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB21">
         <v>8</v>
@@ -22969,7 +22969,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -23049,10 +23049,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB22">
         <v>5</v>
@@ -23144,10 +23144,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB23">
         <v>6</v>
@@ -23239,10 +23239,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB24">
         <v>7</v>
@@ -23334,10 +23334,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB25">
         <v>8</v>
@@ -23361,11 +23361,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD17A0A-8AEF-4B08-A8C0-A0F3553C1AA0}">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -23408,40 +23412,40 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>1</v>
@@ -23530,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA2">
         <v>0.46400000000000002</v>
@@ -23616,7 +23620,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA3">
         <v>0.46500000000000002</v>
@@ -23702,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA4">
         <v>0.46899999999999997</v>
@@ -23788,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA5">
         <v>0.627</v>
@@ -23874,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA6">
         <v>0.46700000000000003</v>
@@ -23960,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA7">
         <v>0.48699999999999999</v>
@@ -24046,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA8">
         <v>0.443</v>
@@ -24132,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA9">
         <v>0.45500000000000002</v>
@@ -24218,7 +24222,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA10">
         <v>0.61399999999999999</v>
@@ -24304,7 +24308,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA11">
         <v>0.71499999999999997</v>
@@ -24390,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA12">
         <v>0.34100000000000003</v>
@@ -24476,7 +24480,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA13">
         <v>0.29799999999999999</v>
@@ -24562,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA14">
         <v>0.25800000000000001</v>
@@ -24648,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA15">
         <v>0.22900000000000001</v>
@@ -24734,7 +24738,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA16">
         <v>0.218</v>
@@ -24820,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA17">
         <v>0.25</v>
@@ -24906,7 +24910,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA18">
         <v>0.35</v>
@@ -24992,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA19">
         <v>0.35099999999999998</v>
@@ -25078,7 +25082,7 @@
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA20">
         <v>0.41399999999999998</v>
@@ -25164,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA21">
         <v>0.47599999999999998</v>
@@ -25250,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA22">
         <v>0.17899999999999999</v>
@@ -25336,7 +25340,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA23">
         <v>0.37</v>
@@ -25422,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA24">
         <v>0.45700000000000002</v>
@@ -25508,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA25">
         <v>0.307</v>
@@ -25594,7 +25598,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA26">
         <v>0.27500000000000002</v>
@@ -25680,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA27">
         <v>0.50900000000000001</v>
@@ -25766,7 +25770,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA28">
         <v>0.32700000000000001</v>
@@ -25852,7 +25856,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA29">
         <v>0.28499999999999998</v>
@@ -25938,7 +25942,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA30">
         <v>0.33500000000000002</v>
@@ -26024,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA31">
         <v>0.26900000000000002</v>
@@ -26110,7 +26114,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA32">
         <v>0.4</v>
@@ -26196,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA33">
         <v>0.28000000000000003</v>
@@ -26282,7 +26286,7 @@
         <v>0</v>
       </c>
       <c r="Z34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA34">
         <v>0.215</v>
@@ -26368,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA35">
         <v>0.27100000000000002</v>
@@ -26454,7 +26458,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA36">
         <v>0.17599999999999999</v>
@@ -26540,7 +26544,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA37">
         <v>0.23699999999999999</v>
@@ -26626,7 +26630,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA38">
         <v>0.13500000000000001</v>
@@ -26712,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA39">
         <v>5.2999999999999999E-2</v>
@@ -26798,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="Z40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA40">
         <v>0.25</v>
@@ -26884,7 +26888,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA41">
         <v>2.3E-2</v>
@@ -26970,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA42">
         <v>-0.22</v>
@@ -27056,7 +27060,7 @@
         <v>0</v>
       </c>
       <c r="Z43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA43">
         <v>0.04</v>
@@ -27142,7 +27146,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA44">
         <v>0.13900000000000001</v>
@@ -27228,7 +27232,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA45">
         <v>0.20899999999999999</v>
@@ -27314,7 +27318,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA46">
         <v>0.114</v>
@@ -27400,7 +27404,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA47">
         <v>0.16800000000000001</v>
@@ -27486,7 +27490,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA48">
         <v>-1.2E-2</v>
@@ -27572,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="Z49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA49">
         <v>9.9000000000000005E-2</v>
@@ -27658,7 +27662,7 @@
         <v>0</v>
       </c>
       <c r="Z50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA50">
         <v>0.113</v>
@@ -27744,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA51">
         <v>8.6999999999999994E-2</v>
@@ -27830,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA52">
         <v>8.3000000000000004E-2</v>
@@ -27916,7 +27920,7 @@
         <v>0</v>
       </c>
       <c r="Z53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA53">
         <v>-0.10100000000000001</v>
@@ -28002,7 +28006,7 @@
         <v>0</v>
       </c>
       <c r="Z54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA54">
         <v>2.8000000000000001E-2</v>
@@ -28088,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="Z55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA55">
         <v>0.125</v>
@@ -28174,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="Z56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA56">
         <v>0.14299999999999999</v>
@@ -28260,7 +28264,7 @@
         <v>0</v>
       </c>
       <c r="Z57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA57">
         <v>-4.2999999999999997E-2</v>
@@ -28346,7 +28350,7 @@
         <v>0</v>
       </c>
       <c r="Z58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA58">
         <v>-0.122</v>
@@ -28432,7 +28436,7 @@
         <v>0</v>
       </c>
       <c r="Z59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA59">
         <v>0.55100000000000005</v>
@@ -28518,7 +28522,7 @@
         <v>0</v>
       </c>
       <c r="Z60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA60">
         <v>0.439</v>
@@ -28604,7 +28608,7 @@
         <v>0</v>
       </c>
       <c r="Z61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA61">
         <v>0.55700000000000005</v>
@@ -28690,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="Z62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA62">
         <v>0.67500000000000004</v>
@@ -28776,7 +28780,7 @@
         <v>0</v>
       </c>
       <c r="Z63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA63">
         <v>0.63900000000000001</v>
@@ -28862,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="Z64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA64">
         <v>0.496</v>
@@ -28948,7 +28952,7 @@
         <v>0</v>
       </c>
       <c r="Z65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA65">
         <v>0.53400000000000003</v>
@@ -29034,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="Z66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA66">
         <v>0.624</v>
@@ -29120,7 +29124,7 @@
         <v>0</v>
       </c>
       <c r="Z67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA67">
         <v>0.78</v>
@@ -29206,7 +29210,7 @@
         <v>0</v>
       </c>
       <c r="Z68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA68">
         <v>0.67700000000000005</v>
@@ -29292,7 +29296,7 @@
         <v>0</v>
       </c>
       <c r="Z69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA69">
         <v>0.77300000000000002</v>
@@ -29378,7 +29382,7 @@
         <v>0</v>
       </c>
       <c r="Z70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA70">
         <v>0.90800000000000003</v>
